--- a/doc/log/log_201608040225_guozhiliang.xlsx
+++ b/doc/log/log_201608040225_guozhiliang.xlsx
@@ -1,40 +1,413 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="14100" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A1:G10"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>完成情况</t>
+  </si>
+  <si>
+    <t>5月2号</t>
+  </si>
+  <si>
+    <t>5月3号</t>
+  </si>
+  <si>
+    <t>5月4号</t>
+  </si>
+  <si>
+    <t>5月5号</t>
+  </si>
+  <si>
+    <t>5月6号</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,18 +415,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,42 +1014,100 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="3" max="3" width="41.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="3">
+        <v>43220</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040225_guozhiliang.xlsx
+++ b/doc/log/log_201608040225_guozhiliang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14100" windowHeight="2700"/>
+    <workbookView windowWidth="15030" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>日期</t>
   </si>
@@ -28,7 +28,19 @@
     <t>完成情况</t>
   </si>
   <si>
+    <t>配置好环境以及连通远程仓库</t>
+  </si>
+  <si>
+    <t>正在进行</t>
+  </si>
+  <si>
+    <t>进行实体类测试</t>
+  </si>
+  <si>
     <t>5月2号</t>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
   <si>
     <t>5月3号</t>
@@ -48,13 +60,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,12 +84,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -85,7 +112,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,11 +132,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,31 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -153,6 +162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -161,53 +178,55 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,11 +435,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,70 +532,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,137 +550,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -672,6 +691,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1020,17 +1043,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="36.625" customWidth="1"/>
     <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
@@ -1044,34 +1068,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="3">
         <v>43220</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040225_guozhiliang.xlsx
+++ b/doc/log/log_201608040225_guozhiliang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15030" windowHeight="4320"/>
+    <workbookView windowWidth="14715" windowHeight="3630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -31,16 +31,16 @@
     <t>配置好环境以及连通远程仓库</t>
   </si>
   <si>
-    <t>正在进行</t>
-  </si>
-  <si>
-    <t>进行实体类测试</t>
+    <t>是</t>
   </si>
   <si>
     <t>5月2号</t>
   </si>
   <si>
-    <t>已完成</t>
+    <t>了解Hibernate</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>5月3号</t>
@@ -49,10 +49,37 @@
     <t>5月4号</t>
   </si>
   <si>
+    <t>学习jpa</t>
+  </si>
+  <si>
     <t>5月5号</t>
   </si>
   <si>
     <t>5月6号</t>
+  </si>
+  <si>
+    <t>5月8号</t>
+  </si>
+  <si>
+    <t>学习springdata</t>
+  </si>
+  <si>
+    <t>5月9号</t>
+  </si>
+  <si>
+    <t>5月10号</t>
+  </si>
+  <si>
+    <t>5月11号</t>
+  </si>
+  <si>
+    <t>5月12号</t>
+  </si>
+  <si>
+    <t>完成小组项目更新</t>
+  </si>
+  <si>
+    <t>5月13号</t>
   </si>
 </sst>
 </file>
@@ -60,13 +87,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,22 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +123,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -118,8 +146,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +170,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,20 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -162,16 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +217,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,46 +247,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,49 +261,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,133 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +452,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,7 +498,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,41 +514,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,8 +536,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,151 +570,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1043,77 +1066,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="36.625" customWidth="1"/>
-    <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43220</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040225_guozhiliang.xlsx
+++ b/doc/log/log_201608040225_guozhiliang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14715" windowHeight="3630"/>
+    <workbookView windowWidth="13575" windowHeight="2820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -80,6 +80,33 @@
   </si>
   <si>
     <t>5月13号</t>
+  </si>
+  <si>
+    <t>5月23号</t>
+  </si>
+  <si>
+    <t>尝试完善自己的模块</t>
+  </si>
+  <si>
+    <t>5月25号</t>
+  </si>
+  <si>
+    <t>了解spring web mvc</t>
+  </si>
+  <si>
+    <t>5月31号</t>
+  </si>
+  <si>
+    <t>实现web访问数据库</t>
+  </si>
+  <si>
+    <t>6月2号</t>
+  </si>
+  <si>
+    <t>完成网页访问</t>
+  </si>
+  <si>
+    <t>6月4号</t>
   </si>
 </sst>
 </file>
@@ -109,6 +136,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,9 +196,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,9 +228,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,46 +241,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,16 +257,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,35 +274,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,19 +288,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,25 +378,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,13 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,115 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,15 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,7 +516,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +536,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,36 +579,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,145 +597,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1066,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
@@ -1084,42 +1108,42 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43220</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1127,7 +1151,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1138,7 +1162,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1149,7 +1173,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1223,6 +1247,61 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040225_guozhiliang.xlsx
+++ b/doc/log/log_201608040225_guozhiliang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13575" windowHeight="2820"/>
+    <workbookView windowWidth="14190" windowHeight="2415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>日期</t>
   </si>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>6月4号</t>
+  </si>
+  <si>
+    <t>6月5号</t>
+  </si>
+  <si>
+    <t>6月6号</t>
+  </si>
+  <si>
+    <t>6月7号</t>
+  </si>
+  <si>
+    <t>网页访问格式化</t>
+  </si>
+  <si>
+    <t>6月8号</t>
+  </si>
+  <si>
+    <t>6月9号</t>
+  </si>
+  <si>
+    <t>6月10号</t>
+  </si>
+  <si>
+    <t>6月11号</t>
   </si>
 </sst>
 </file>
@@ -114,8 +138,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -136,14 +160,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,32 +250,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,8 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,70 +289,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,21 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,9 +523,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,29 +564,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,16 +585,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
@@ -1302,6 +1326,77 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040225_guozhiliang.xlsx
+++ b/doc/log/log_201608040225_guozhiliang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14190" windowHeight="2415"/>
+    <workbookView windowWidth="15480" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>日期</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>6月11号</t>
+  </si>
+  <si>
+    <t>访问数据表格化</t>
+  </si>
+  <si>
+    <t>6月12号</t>
+  </si>
+  <si>
+    <t>6月13号</t>
+  </si>
+  <si>
+    <t>6月14号</t>
+  </si>
+  <si>
+    <t>6月15号</t>
   </si>
 </sst>
 </file>
@@ -159,6 +174,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -166,6 +197,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -175,15 +228,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,31 +243,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,45 +273,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -276,21 +282,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,7 +569,36 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -585,34 +618,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,31 +636,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,97 +672,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
@@ -1394,9 +1409,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:1">
+    <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040225_guozhiliang.xlsx
+++ b/doc/log/log_201608040225_guozhiliang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15480" windowHeight="3255"/>
+    <workbookView windowWidth="14970" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>日期</t>
   </si>
@@ -146,6 +146,54 @@
   </si>
   <si>
     <t>6月15号</t>
+  </si>
+  <si>
+    <t>6月19号</t>
+  </si>
+  <si>
+    <t>安装JIRA和Jenkins</t>
+  </si>
+  <si>
+    <t>6月20号</t>
+  </si>
+  <si>
+    <t>了解课程提纲</t>
+  </si>
+  <si>
+    <t>6月21号</t>
+  </si>
+  <si>
+    <t>写文档</t>
+  </si>
+  <si>
+    <t>6月22号</t>
+  </si>
+  <si>
+    <t>完善本周任务</t>
+  </si>
+  <si>
+    <t>6月23号</t>
+  </si>
+  <si>
+    <t>6月24号</t>
+  </si>
+  <si>
+    <t>6月25号</t>
+  </si>
+  <si>
+    <t>6月26号</t>
+  </si>
+  <si>
+    <t>6月27号</t>
+  </si>
+  <si>
+    <t>6月28号</t>
+  </si>
+  <si>
+    <t>6月29号</t>
+  </si>
+  <si>
+    <t>6月30号</t>
   </si>
 </sst>
 </file>
@@ -153,8 +201,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -197,6 +245,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -205,89 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -296,23 +359,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,25 +375,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,55 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,25 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +543,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,60 +556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,21 +566,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,20 +599,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +634,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,16 +684,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,115 +702,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,16 +1177,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B36" sqref="A1:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
@@ -1462,6 +1510,90 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
